--- a/single_2/single_2/bin/Debug/CarDetails.xml.xlsx
+++ b/single_2/single_2/bin/Debug/CarDetails.xml.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ins_IT\Desktop\aksGit\ACS-2019\single_2\single_2\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAABDAB-E302-4ABA-A8D3-2C1642A825BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="5970"/>
+    <workbookView xWindow="264" yWindow="912" windowWidth="22776" windowHeight="12048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -266,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -427,9 +433,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -448,9 +451,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -459,9 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -475,9 +472,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,12 +492,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,9 +575,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,6 +627,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,27 +819,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="13.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,821 +871,821 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2018</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>31969.54</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5">
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>64</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2014</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>46210.32</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>61</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2015</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>66822.789999999994</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2019</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>75221.649999999994</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13">
+      <c r="H5" s="4"/>
+      <c r="I5" s="11">
         <v>320</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2017</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>28680</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>63</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2019</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>26796</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>50</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2017</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>327160</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2018</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>32996</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="6">
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>65</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2018</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>42556</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5">
         <v>5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>93</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2019</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>79996</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>65</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2016</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>34116</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>60</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="5">
+    <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4">
         <v>320</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2018</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>28716</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>60</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2019</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>50996</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>66</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="5" t="s">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2018</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>34916</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>65</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2019</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>59916</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5">
         <v>7</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>83</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>2019</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>18192</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>5</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>50</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>2018</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>16892</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>55</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2017</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>18608</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="5">
         <v>5</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>70</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2019</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>19132</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>84</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2018</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>26552</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>5</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>84</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>2016</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>16592</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5">
         <v>5</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>60</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>2018</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>19640</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="5">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>2019</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>34236</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="5">
         <v>5</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>82</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>2019</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>43180</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="5">
         <v>7</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>107</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>2019</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>17148</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="5">
         <v>5</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="5" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>2018</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>20116</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>5</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="5" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1655,24 +1699,572 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="20">
+        <v>31969.54</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="20">
+        <v>46210.32</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="20">
+        <v>66822.789999999994</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20">
+        <v>75221.649999999994</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20">
+        <v>28680</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20">
+        <v>26796</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20">
+        <v>327160</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="20">
+        <v>32996</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20">
+        <v>42556</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="20">
+        <v>79996</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="20">
+        <v>34116</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2016</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="20">
+        <v>320</v>
+      </c>
+      <c r="C13" s="20">
+        <v>28716</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="20">
+        <v>50996</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="20">
+        <v>34916</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="20">
+        <v>59916</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="20">
+        <v>18192</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="20">
+        <v>16892</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="20">
+        <v>18608</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="20">
+        <v>19132</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="20">
+        <v>26552</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="20">
+        <v>16592</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2016</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="20">
+        <v>19640</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="20">
+        <v>34236</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="20">
+        <v>43180</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="20">
+        <v>17148</v>
+      </c>
+      <c r="D26" s="20">
+        <v>2019</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="20">
+        <v>20116</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
